--- a/precedencni_tabulka.xlsx
+++ b/precedencni_tabulka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xvlasa14_vutbr_cz/Documents/third_year/IFJ/IFJ-prekladac-GO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{FBF98A7C-392F-43D7-93C9-CB661EB33E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90049FE1-92DF-49AC-B22C-17F66F2D32D7}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{FBF98A7C-392F-43D7-93C9-CB661EB33E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA5E660-410A-47C1-A796-61C25B76A5BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E9009F92-5787-4342-BFFE-A778CBA8B655}"/>
+    <workbookView xWindow="-19310" yWindow="-60" windowWidth="19420" windowHeight="10420" xr2:uid="{E9009F92-5787-4342-BFFE-A778CBA8B655}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="30">
   <si>
     <t>+</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>ERROR</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>cmprs</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -166,12 +190,30 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -321,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +371,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,55 +422,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3938B271-4B78-4E15-98AE-AAC918601179}">
-  <dimension ref="D4:S23"/>
+  <dimension ref="D4:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,555 +784,555 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="9" t="s">
+      <c r="F6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="F7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="F8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="F9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="9" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="9" t="s">
+      <c r="F11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="9" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="9" t="s">
+      <c r="F13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="9" t="s">
+      <c r="F14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="9" t="s">
+      <c r="F15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1308,13 +1374,13 @@
       <c r="R16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1356,13 +1422,13 @@
       <c r="R17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1404,92 +1470,272 @@
       <c r="R18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D19" s="7"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="8" t="s">
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="10" t="s">
+      <c r="R19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D27" s="31"/>
+      <c r="E27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D28" s="31"/>
+      <c r="E28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="31"/>
+      <c r="E29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="31"/>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="31"/>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D32" s="31"/>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D5:D19"/>
     <mergeCell ref="E4:S4"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H21:I23"/>
-    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/precedencni_tabulka.xlsx
+++ b/precedencni_tabulka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xvlasa14_vutbr_cz/Documents/third_year/IFJ/IFJ-prekladac-GO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{FBF98A7C-392F-43D7-93C9-CB661EB33E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDA5E660-410A-47C1-A796-61C25B76A5BD}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{FBF98A7C-392F-43D7-93C9-CB661EB33E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7D8CA1E-C53C-47C1-88AF-70A63FBE2B40}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-60" windowWidth="19420" windowHeight="10420" xr2:uid="{E9009F92-5787-4342-BFFE-A778CBA8B655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E9009F92-5787-4342-BFFE-A778CBA8B655}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,6 +407,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,42 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3938B271-4B78-4E15-98AE-AAC918601179}">
   <dimension ref="D4:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,26 +784,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6"/>
@@ -851,487 +851,487 @@
       </c>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="15"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="26" t="s">
+      <c r="F6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="15"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="26" t="s">
+      <c r="F7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="15"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="30" t="s">
+      <c r="F8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="15"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="30" t="s">
+      <c r="F9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="15"/>
-      <c r="E10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="23" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="23" t="s">
+      <c r="F11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="15"/>
-      <c r="E12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="15"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="F13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="15"/>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="F14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="15"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="23" t="s">
+      <c r="F15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="15"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D17" s="15"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" s="15"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D19" s="15"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="14" t="s">
         <v>13</v>
       </c>
@@ -1523,53 +1523,53 @@
       </c>
     </row>
     <row r="21" spans="4:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1583,8 +1583,8 @@
       </c>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1607,15 +1607,15 @@
       </c>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D28" s="31"/>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>25</v>
@@ -1631,8 +1631,8 @@
       </c>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="31"/>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="31"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D31" s="31"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D32" s="31"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
